--- a/Prepration/Documention_Maretials.xlsx
+++ b/Prepration/Documention_Maretials.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\2025\workspace-intreview\Prepration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B848399-04EF-4814-92E8-94A8438328DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,1287 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
+  <si>
+    <t>JAVA Core Topics</t>
+  </si>
+  <si>
+    <t>OPPS concept</t>
+  </si>
+  <si>
+    <t>1. Core Java (Must Know)</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>🔹 OOP Principles</t>
+  </si>
+  <si>
+    <t>Abstraction, Inheritance, Polymorphism, Encapsulation</t>
+  </si>
+  <si>
+    <t>🔹 Data Types</t>
+  </si>
+  <si>
+    <t>Primitives, Wrappers, Autoboxing</t>
+  </si>
+  <si>
+    <t>🔹 Control Structures</t>
+  </si>
+  <si>
+    <t>Loops, Switch, Break/Continue</t>
+  </si>
+  <si>
+    <t>🔹 Strings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immutability, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>StringBuffer</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Exception Handling</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try-catch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>throws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, custom exceptions</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Collections Framework</t>
+  </si>
+  <si>
+    <t>List, Set, Map, Queue, Stack; differences between them</t>
+  </si>
+  <si>
+    <t>🔹 Comparable vs Comparator</t>
+  </si>
+  <si>
+    <t>Sorting strategies</t>
+  </si>
+  <si>
+    <t>🔹 Generics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wildcards </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;?&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;T extends&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Static &amp; Final</t>
+  </si>
+  <si>
+    <t>Use cases, static block, final variable/class/method</t>
+  </si>
+  <si>
+    <t>🔹 Inner Classes</t>
+  </si>
+  <si>
+    <t>Static, non-static, anonymous</t>
+  </si>
+  <si>
+    <t>🔹 Java Memory Model</t>
+  </si>
+  <si>
+    <t>Stack vs Heap, GC basics</t>
+  </si>
+  <si>
+    <t>🔹 Java 8+ Features</t>
+  </si>
+  <si>
+    <t>Lambda, Streams, Functional interfaces, Default methods</t>
+  </si>
+  <si>
+    <t>🔹 Thread vs Runnable</t>
+  </si>
+  <si>
+    <t>Difference and when to use</t>
+  </si>
+  <si>
+    <t>🔹 Thread Lifecycle</t>
+  </si>
+  <si>
+    <t>New, Runnable, Waiting, Timed Waiting, Terminated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword</t>
+    </r>
+  </si>
+  <si>
+    <t>Method, block, class level</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>wait()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>notify()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>notifyAll()</t>
+    </r>
+  </si>
+  <si>
+    <t>Inter-thread communication</t>
+  </si>
+  <si>
+    <t>🔹 ExecutorService</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thread pools, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>submit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>shutdown()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Callable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Future</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>atomic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>locks</t>
+    </r>
+  </si>
+  <si>
+    <t>Memory visibility and atomic operations</t>
+  </si>
+  <si>
+    <t>🔹 Concurrent Collections</t>
+  </si>
+  <si>
+    <r>
+      <t>ConcurrentHashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CopyOnWriteArrayList</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Deadlock, Livelock, Starvation</t>
+  </si>
+  <si>
+    <t>Detection and prevention</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>Lambdas, Streams, Optional, Method References, Date API, Default Methods</t>
+  </si>
+  <si>
+    <t>Java 9</t>
+  </si>
+  <si>
+    <t>Modules, JShell</t>
+  </si>
+  <si>
+    <t>Java 10</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword</t>
+    </r>
+  </si>
+  <si>
+    <t>Java 11</t>
+  </si>
+  <si>
+    <r>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>HttpClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Local-Variable syntax for lambda</t>
+    </r>
+  </si>
+  <si>
+    <t>Java 14–17</t>
+  </si>
+  <si>
+    <t>Switch expressions, Records, Sealed classes (Java 17), Pattern Matching</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Creational</t>
+  </si>
+  <si>
+    <t>Singleton, Factory, Builder, Prototype</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Adapter, Decorator, Proxy</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>Strategy, Observer, Command</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Fluent Builder, Dependency Injection, Factory Method</t>
+  </si>
+  <si>
+    <t>🔹 Garbage Collection</t>
+  </si>
+  <si>
+    <t>Types of collectors: Serial, Parallel, G1</t>
+  </si>
+  <si>
+    <t>🔹 JVM Internals</t>
+  </si>
+  <si>
+    <t>ClassLoader, Stack, Heap, Method Area</t>
+  </si>
+  <si>
+    <t>🔹 OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>Heap space vs PermGen vs Metaspace</t>
+  </si>
+  <si>
+    <t>🔹 Memory Leaks</t>
+  </si>
+  <si>
+    <t>In collections, listeners, etc.</t>
+  </si>
+  <si>
+    <t>🔹 Checked vs Unchecked</t>
+  </si>
+  <si>
+    <t>Compile-time vs runtime exceptions</t>
+  </si>
+  <si>
+    <t>🔹 Best Practices</t>
+  </si>
+  <si>
+    <t>Custom exceptions, meaningful messages</t>
+  </si>
+  <si>
+    <t>🔹 Try-with-resources</t>
+  </si>
+  <si>
+    <t>Auto-closeable resources</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>java.io</t>
+  </si>
+  <si>
+    <t>FileReader, FileWriter, BufferedReader</t>
+  </si>
+  <si>
+    <t>java.nio</t>
+  </si>
+  <si>
+    <t>Channels, Buffers, Paths</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <r>
+      <t>Serializable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>transient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Externalizable</t>
+    </r>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Lambda Expressions</t>
+  </si>
+  <si>
+    <t>Syntax, usage</t>
+  </si>
+  <si>
+    <t>Functional Interfaces</t>
+  </si>
+  <si>
+    <r>
+      <t>Predicate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Supplier</t>
+    </r>
+  </si>
+  <si>
+    <t>Stream API</t>
+  </si>
+  <si>
+    <r>
+      <t>filter()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>map()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>reduce()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>collect()</t>
+    </r>
+  </si>
+  <si>
+    <t>Optional API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avoiding null, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ifPresent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>orElse</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 JVM Parameters</t>
+  </si>
+  <si>
+    <r>
+      <t>-Xms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>-Xmx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>-XX:+UseG1GC</t>
+    </r>
+  </si>
+  <si>
+    <t>🔹 Profiling Tools</t>
+  </si>
+  <si>
+    <t>VisualVM, JConsole</t>
+  </si>
+  <si>
+    <t>🔹 Tuning</t>
+  </si>
+  <si>
+    <t>Thread dumps, heap dumps, GC logs</t>
+  </si>
+  <si>
+    <t>Key Areas</t>
+  </si>
+  <si>
+    <t>Spring Core</t>
+  </si>
+  <si>
+    <t>Dependency Injection, Annotations</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Starters, Auto-configuration, Properties</t>
+  </si>
+  <si>
+    <t>REST APIs</t>
+  </si>
+  <si>
+    <r>
+      <t>@RestController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, JSON serialization</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repositories, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@Entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Paging, Queries</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>JWT, OAuth2, Basic Auth</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>JUnit 5, Mockito, MockMvc</t>
+  </si>
+  <si>
+    <t>Spring AOP</t>
+  </si>
+  <si>
+    <t>Logging, Transactions</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Global with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@ControllerAdvice</t>
+    </r>
+  </si>
+  <si>
+    <t>SQL Basics</t>
+  </si>
+  <si>
+    <t>Joins, Indexing, Grouping</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <r>
+      <t>@Entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@OneToMany</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>@ManyToOne</t>
+    </r>
+  </si>
+  <si>
+    <t>JPQL vs Native SQL</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <r>
+      <t>@Transactional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, isolation levels</t>
+    </r>
+  </si>
+  <si>
+    <t>Connection Pooling</t>
+  </si>
+  <si>
+    <t>HikariCP, performance tuning</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Version control</t>
+  </si>
+  <si>
+    <t>Maven/Gradle</t>
+  </si>
+  <si>
+    <t>Build tools</t>
+  </si>
+  <si>
+    <t>JUnit &amp; Mockito</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Containerization</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Jenkins, GitHub Actions</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>SLF4J, Logback, Log4j2</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>Code quality analysis</t>
+  </si>
+  <si>
+    <t>Bonus: Most Frequently Asked Java Interview Questions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. What's the difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>equals()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>2. What are the main principles of OOP?</t>
+  </si>
+  <si>
+    <t>3. How does HashMap work internally?</t>
+  </si>
+  <si>
+    <t>4. How do you ensure thread-safety in a multithreaded program?</t>
+  </si>
+  <si>
+    <t>5. What is the difference between final, finally, and finalize?</t>
+  </si>
+  <si>
+    <t>6. What are the key differences between ArrayList and LinkedList?</t>
+  </si>
+  <si>
+    <t>7. What are lambdas and how do you use them in Java?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Runnable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Callable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>9. How does garbage collection work in Java?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. What is the difference between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ConcurrentHashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +1327,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1624,740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="58.81640625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29">
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="23.5">
+      <c r="A96" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>